--- a/Peru Data Analysis/Fortran Input File/pfromc_sheet.xlsx
+++ b/Peru Data Analysis/Fortran Input File/pfromc_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\Tatum‘s Group\FORTRAN_Rewrite\Peru Data Analysis\Fortran Input File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24DF433D-CB8D-4590-9E60-80C18FA7443F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741C6878-30C5-425C-8F44-2670193530ED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D1E1A4FA-88F9-4C3C-B01A-A42BD578D72E}"/>
   </bookViews>
@@ -431,6 +431,2816 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PFROMC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PVO2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PFROMC_values!$A$5:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>CMS02_PR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CMS02_PO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CMS03_PR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CMS03_PO</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMS04_PR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CMS04_PO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CMS05_PR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CMS05_PO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CMS06_PR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CMS06_PO</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CMS07_PR</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CMS07_PO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CON01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CON02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CON03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CON04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CON06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CON07</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CON08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CON09</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PFROMC_values!$R$5:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2191-44C3-81FB-23C4384DF3DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PVCO2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PFROMC_values!$A$5:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>CMS02_PR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CMS02_PO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CMS03_PR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CMS03_PO</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMS04_PR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CMS04_PO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CMS05_PR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CMS05_PO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CMS06_PR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CMS06_PO</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CMS07_PR</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CMS07_PO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CON01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CON02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CON03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CON04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CON06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CON07</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CON08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CON09</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PFROMC_values!$S$5:$S$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2191-44C3-81FB-23C4384DF3DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="381348112"/>
+        <c:axId val="381349072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="381348112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381349072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="381349072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381348112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FICK'S</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> EQUATION</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PFROMC_values!$A$5:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>CMS02_PR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CMS02_PO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CMS03_PR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CMS03_PO</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMS04_PR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CMS04_PO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CMS05_PR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CMS05_PO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CMS06_PR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CMS06_PO</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CMS07_PR</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CMS07_PO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CON01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CON02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CON03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CON04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CON06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CON07</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CON08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CON09</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PFROMC_values!$B$5:$B$24</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C0A-4244-B6B3-E43522D2F094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PFROMC_values!$A$5:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>CMS02_PR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CMS02_PO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CMS03_PR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CMS03_PO</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMS04_PR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CMS04_PO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CMS05_PR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CMS05_PO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CMS06_PR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CMS06_PO</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CMS07_PR</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CMS07_PO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CON01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CON02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CON03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CON04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CON06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CON07</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CON08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CON09</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PFROMC_values!$C$5:$C$24</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0C0A-4244-B6B3-E43522D2F094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PFROMC_values!$A$5:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>CMS02_PR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CMS02_PO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CMS03_PR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CMS03_PO</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMS04_PR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CMS04_PO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CMS05_PR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CMS05_PO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CMS06_PR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CMS06_PO</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CMS07_PR</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CMS07_PO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CON01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CON02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CON03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CON04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CON06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CON07</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CON08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CON09</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PFROMC_values!$D$5:$D$24</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0C0A-4244-B6B3-E43522D2F094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PFROMC_values!$A$5:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>CMS02_PR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CMS02_PO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CMS03_PR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CMS03_PO</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMS04_PR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CMS04_PO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CMS05_PR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CMS05_PO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CMS06_PR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CMS06_PO</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CMS07_PR</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CMS07_PO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CON01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CON02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CON03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CON04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CON06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CON07</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CON08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CON09</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PFROMC_values!$E$5:$E$24</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0C0A-4244-B6B3-E43522D2F094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PFROMC_values!$A$5:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>CMS02_PR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CMS02_PO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CMS03_PR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CMS03_PO</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMS04_PR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CMS04_PO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CMS05_PR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CMS05_PO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CMS06_PR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CMS06_PO</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CMS07_PR</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CMS07_PO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CON01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CON02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CON03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CON04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CON06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CON07</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CON08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CON09</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PFROMC_values!$F$5:$F$24</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0C0A-4244-B6B3-E43522D2F094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>CVO2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PFROMC_values!$A$5:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>CMS02_PR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CMS02_PO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CMS03_PR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CMS03_PO</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMS04_PR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CMS04_PO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CMS05_PR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CMS05_PO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CMS06_PR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CMS06_PO</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CMS07_PR</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CMS07_PO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CON01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CON02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CON03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CON04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CON06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CON07</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CON08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CON09</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PFROMC_values!$G$5:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6.0232776531100178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6482692007308586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0789379372925403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3387155282361931</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.370611848917749</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6292755021414287</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.36222526838854</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5075131402859974</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9466363288783803</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9038349088040416</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1050644903622882</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.074684547536858</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.3894359207940994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9456155246006404</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5198643455926018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.1624462029754206</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.9359408713884658</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.8613003605611951</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.5460955189648065</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0542908817112622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0C0A-4244-B6B3-E43522D2F094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>CVCO2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PFROMC_values!$A$5:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>CMS02_PR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CMS02_PO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CMS03_PR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CMS03_PO</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMS04_PR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CMS04_PO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CMS05_PR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CMS05_PO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CMS06_PR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CMS06_PO</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CMS07_PR</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CMS07_PO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CON01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CON02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CON03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CON04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CON06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CON07</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CON08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CON09</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PFROMC_values!$H$5:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>41.039860930382666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.234574215965623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.408930754317893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.514658711058736</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.270047162628288</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.406538813374297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.198440181613435</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.14845908471262</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.091135610969559</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.832261420623723</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.569902412384565</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.693377333323149</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.582124229991919</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.260029563633879</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.460619148553882</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.48513038608202</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.285386380781617</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.498347261081143</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.693597826742931</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.453426807629768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0C0A-4244-B6B3-E43522D2F094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="608326648"/>
+        <c:axId val="608328888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="608326648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608328888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="608328888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608326648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>298695</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>112636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>934005</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>72316</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A282E25F-86BB-4BB6-9E09-BB17B9A74DDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>261706</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>149625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>118554</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65F41E5-40BB-4873-A65A-BA7745134CD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -729,10 +3539,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580E74DE-CA62-4FE3-ADA6-61F6E8FBE240}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:Z97"/>
+  <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="103" zoomScaleNormal="145" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -759,7 +3569,7 @@
     <col min="27" max="16384" width="16.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,8 +3645,11 @@
       <c r="Z1" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="30" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+    </row>
+    <row r="2" spans="1:30" ht="30" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
@@ -902,8 +3715,11 @@
       <c r="Z2" s="20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>27</v>
       </c>
@@ -969,8 +3785,11 @@
       <c r="Z3" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+    </row>
+    <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -994,8 +3813,11 @@
       <c r="Z4" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>28</v>
       </c>
@@ -1064,8 +3886,11 @@
       <c r="Z5" s="26">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>29</v>
       </c>
@@ -1134,8 +3959,11 @@
       <c r="Z6" s="26">
         <v>24.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>30</v>
       </c>
@@ -1204,8 +4032,11 @@
       <c r="Z7" s="26">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>31</v>
       </c>
@@ -1274,8 +4105,11 @@
       <c r="Z8" s="26">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+    </row>
+    <row r="9" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>32</v>
       </c>
@@ -1344,8 +4178,11 @@
       <c r="Z9" s="34">
         <v>27.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+    </row>
+    <row r="10" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>33</v>
       </c>
@@ -1414,8 +4251,11 @@
       <c r="Z10" s="34">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+    </row>
+    <row r="11" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>34</v>
       </c>
@@ -1484,8 +4324,11 @@
       <c r="Z11" s="34">
         <v>26.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+    </row>
+    <row r="12" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>35</v>
       </c>
@@ -1554,8 +4397,11 @@
       <c r="Z12" s="34">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+    </row>
+    <row r="13" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>36</v>
       </c>
@@ -1624,8 +4470,11 @@
       <c r="Z13" s="34">
         <v>29.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+    </row>
+    <row r="14" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>37</v>
       </c>
@@ -1694,8 +4543,11 @@
       <c r="Z14" s="34">
         <v>26.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+    </row>
+    <row r="15" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>38</v>
       </c>
@@ -1764,8 +4616,11 @@
       <c r="Z15" s="34">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+    </row>
+    <row r="16" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>39</v>
       </c>
@@ -1834,8 +4689,11 @@
       <c r="Z16" s="34">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+    </row>
+    <row r="17" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>40</v>
       </c>
@@ -1904,8 +4762,11 @@
       <c r="Z17" s="34">
         <v>22.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+    </row>
+    <row r="18" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>41</v>
       </c>
@@ -1974,8 +4835,11 @@
       <c r="Z18" s="34">
         <v>26.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+    </row>
+    <row r="19" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
         <v>42</v>
       </c>
@@ -2044,8 +4908,11 @@
       <c r="Z19" s="34">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+    </row>
+    <row r="20" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>43</v>
       </c>
@@ -2114,8 +4981,11 @@
       <c r="Z20" s="34">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+    </row>
+    <row r="21" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>44</v>
       </c>
@@ -2185,7 +5055,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>45</v>
       </c>
@@ -2255,7 +5125,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>46</v>
       </c>
@@ -2325,7 +5195,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>47</v>
       </c>
@@ -2395,7 +5265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -2416,7 +5286,7 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2435,7 +5305,7 @@
       <c r="T26" s="16"/>
       <c r="U26" s="16"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -2454,7 +5324,7 @@
       <c r="T27" s="16"/>
       <c r="U27" s="16"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -2473,7 +5343,7 @@
       <c r="T28" s="16"/>
       <c r="U28" s="16"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -2492,7 +5362,7 @@
       <c r="T29" s="16"/>
       <c r="U29" s="16"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -2511,7 +5381,7 @@
       <c r="T30" s="16"/>
       <c r="U30" s="16"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -2530,7 +5400,7 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -3557,5 +6427,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Peru Data Analysis/Fortran Input File/pfromc_sheet.xlsx
+++ b/Peru Data Analysis/Fortran Input File/pfromc_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\Tatum‘s Group\FORTRAN_Rewrite\Peru Data Analysis\Fortran Input File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741C6878-30C5-425C-8F44-2670193530ED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81934BE-44D1-4F44-8718-14CC039BAD10}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D1E1A4FA-88F9-4C3C-B01A-A42BD578D72E}"/>
+    <workbookView xWindow="3510" yWindow="3195" windowWidth="24360" windowHeight="13005" xr2:uid="{D1E1A4FA-88F9-4C3C-B01A-A42BD578D72E}"/>
   </bookViews>
   <sheets>
     <sheet name="PFROMC_values" sheetId="2" r:id="rId1"/>
@@ -3541,7 +3541,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="103" zoomScaleNormal="145" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="145" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
